--- a/pred_ohlcv/54_21/2019-10-26 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 BAT ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-32084.54029999999</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-23437.54029999999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-21067.54029999999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-21093.80519999999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>47813.01333029824</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>48648.01333029824</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>49182.99883029824</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>50047.99883029824</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>51034.99883029824</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>50641.99883029824</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>50641.99883029824</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>50641.99883029824</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>50625.18633029824</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>51520.30793029824</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>50451.30793029824</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>46278.71163029824</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>32520.34403029824</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>32520.34403029824</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-14044.86956970176</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-10420.15136970176</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-10420.15136970176</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-10420.15136970176</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-10420.15136970176</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-9330.686669701761</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-9331.686669701761</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>788.7133302982384</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>788.7133302982384</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>788.7133302982384</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1877.983569701762</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1877.983569701762</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-34447.29306970176</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-32422.15506970176</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-34586.83946970176</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-30314.13876970176</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>39434.28718134958</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>37790.78548134958</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>37790.78548134958</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>37790.78548134958</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>37790.78548134958</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>37790.78548134958</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>29168.66258134958</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>29146.43298134958</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>18649.52488134958</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>19745.79531490662</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>26841.56858258339</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>26841.56858258339</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>23992.56518258339</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>25013.04278258339</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>24441.19258258339</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>24331.19258258339</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>24331.19258258339</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>27169.54798258339</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>27169.54798258339</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>26870.54798258339</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>11705.63068258339</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-47192.65188374658</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-47192.65188374658</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-48039.57338374657</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-48023.57208374657</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-48023.57208374657</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-48023.57208374657</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-9686.282683746569</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 BAT ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-23437.54029999999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-21067.54029999999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-21093.80519999999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>47813.01333029824</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>48648.01333029824</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>49182.99883029824</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>50047.99883029824</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>51034.99883029824</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>50641.99883029824</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>50641.99883029824</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>50641.99883029824</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>50625.18633029824</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>51520.30793029824</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>50451.30793029824</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>46278.71163029824</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>32520.34403029824</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>32520.34403029824</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-14044.86956970176</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-10420.15136970176</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-10420.15136970176</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-10420.15136970176</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-10420.15136970176</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-9330.686669701761</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-9331.686669701761</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>788.7133302982384</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>788.7133302982384</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>788.7133302982384</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1877.983569701762</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1877.983569701762</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-34447.29306970176</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-32422.15506970176</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-34586.83946970176</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-30314.13876970176</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>39434.28718134958</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>37790.78548134958</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>37790.78548134958</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>37790.78548134958</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>37790.78548134958</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>37790.78548134958</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>29168.66258134958</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>29146.43298134958</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>26841.56858258339</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>26841.56858258339</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>23992.56518258339</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>25013.04278258339</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>24441.19258258339</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>24331.19258258339</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>24331.19258258339</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>27169.54798258339</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>27169.54798258339</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>26870.54798258339</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>11705.63068258339</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-47192.65188374658</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-47192.65188374658</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-47192.65188374658</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-48039.57338374657</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-48023.57208374657</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-48023.57208374657</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-48023.57208374657</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-981.2640837465693</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-5005.83168374657</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-3484.73148374657</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-3484.73148374657</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-9686.282683746569</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-9686.282683746569</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-9660.487783746568</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-2399.565983746568</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-2399.565983746568</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
